--- a/survey responses/raw.xlsx
+++ b/survey responses/raw.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="71">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3063,6 +3063,173 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>44255.87328726852</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1000.0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="N6" s="3">
+        <v>40.5</v>
+      </c>
+      <c r="O6" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>41.0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AN6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AX6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="BC6" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/survey responses/raw.xlsx
+++ b/survey responses/raw.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="71">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3063,173 +3063,6 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>44255.87328726852</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="3">
-        <v>24.0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1000.0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="N6" s="3">
-        <v>40.5</v>
-      </c>
-      <c r="O6" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R6" s="3">
-        <v>41.0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="X6" s="3">
-        <v>27.0</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>27.0</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>27.0</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="AN6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS6" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AU6" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AV6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW6" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="AX6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="AY6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA6" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="BB6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="BC6" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
